--- a/TaiLieu/KeHoachThucHien/New/KeHoachThucHienDACS.xlsx
+++ b/TaiLieu/KeHoachThucHien/New/KeHoachThucHienDACS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unfor\Desktop\New folder\TaiLieu\KeHoachThucHien\New\KeHoach_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unfor\Desktop\New folder\TaiLieu\KeHoachThucHien\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="110">
   <si>
     <t>STT</t>
   </si>
@@ -201,9 +201,6 @@
     <t>11/5 - 17/5/2020</t>
   </si>
   <si>
-    <t>12(Chỉ Có 3 Ngày)</t>
-  </si>
-  <si>
     <t>Phân Tích Lại Hệ Thống</t>
   </si>
   <si>
@@ -352,6 +349,12 @@
   </si>
   <si>
     <t>Code Tra Cứu Email,SĐT GVBM + GVCN</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>13(Chỉ Có 3 Ngày)</t>
   </si>
 </sst>
 </file>
@@ -1169,88 +1172,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1288,6 +1209,88 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1831,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93:H97"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98:C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1867,10 +1870,10 @@
       </c>
     </row>
     <row r="5" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="60">
+      <c r="C5" s="83">
         <v>1</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="84" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="34" t="s">
@@ -1879,86 +1882,86 @@
       <c r="F5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="85">
         <v>1</v>
       </c>
-      <c r="H5" s="67"/>
+      <c r="H5" s="88"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="46"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="68"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="89"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="46"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="70" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="91" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="68"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="89"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="46"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="70"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="68"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="89"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="46"/>
-      <c r="D9" s="50"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="35" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="68"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="89"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="46"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="68"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="89"/>
     </row>
     <row r="11" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="61"/>
-      <c r="D11" s="63"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="77"/>
       <c r="E11" s="36" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="69"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="44">
-        <v>2</v>
-      </c>
-      <c r="D12" s="48" t="s">
+      <c r="C12" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="65" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="37" t="s">
@@ -1967,108 +1970,108 @@
       <c r="F12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="71">
+      <c r="G12" s="92">
         <v>1</v>
       </c>
-      <c r="H12" s="74"/>
+      <c r="H12" s="95"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="46"/>
-      <c r="D13" s="50"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="35" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="72"/>
-      <c r="H13" s="68"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="89"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="46"/>
-      <c r="D14" s="50"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="35" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="72"/>
-      <c r="H14" s="68"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="89"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="46"/>
-      <c r="D15" s="50"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="35" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="68"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="89"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="46"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="72"/>
-      <c r="H16" s="68"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="89"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="46"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="70" t="s">
+      <c r="C17" s="63"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="91" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="72"/>
-      <c r="H17" s="68"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="89"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="46"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="70"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="91"/>
       <c r="F18" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="72"/>
-      <c r="H18" s="68"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="89"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="46"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="70"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="91"/>
       <c r="F19" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="68"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="89"/>
     </row>
     <row r="20" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="47"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="38" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="73"/>
-      <c r="H20" s="69"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="90"/>
     </row>
     <row r="21" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="44">
-        <v>3</v>
-      </c>
-      <c r="D21" s="48" t="s">
+      <c r="C21" s="62">
+        <v>4</v>
+      </c>
+      <c r="D21" s="65" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="21" t="s">
@@ -2077,1021 +2080,1002 @@
       <c r="F21" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="56"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="71"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="45"/>
-      <c r="D22" s="49"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="57"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="80"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="46"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="77" t="s">
-        <v>61</v>
+      <c r="C23" s="63"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="82" t="s">
+        <v>60</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="58"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="72"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="46"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="77"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="82"/>
       <c r="F24" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="58"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="72"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="46"/>
-      <c r="D25" s="50"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="58"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="72"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="46"/>
-      <c r="D26" s="50"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="58"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="72"/>
     </row>
     <row r="27" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="61"/>
-      <c r="D27" s="63"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="77"/>
       <c r="E27" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="81"/>
     </row>
     <row r="28" spans="3:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="44">
-        <v>4</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>65</v>
+      <c r="C28" s="62">
+        <v>5</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>64</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="33"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="56"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="71"/>
     </row>
     <row r="29" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="45"/>
-      <c r="D29" s="49"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="76"/>
       <c r="E29" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="78"/>
+      <c r="H29" s="80"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="74"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="53"/>
-      <c r="H29" s="57"/>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C30" s="45"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="19" t="s">
+      <c r="F30" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="78"/>
+      <c r="H30" s="80"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="74"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="53"/>
-      <c r="H30" s="57"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C31" s="45"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="19" t="s">
+      <c r="F31" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="78"/>
+      <c r="H31" s="80"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="63"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="69"/>
+      <c r="H32" s="72"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="63"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="57"/>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C32" s="46"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="58"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C33" s="46"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="20" t="s">
+      <c r="F33" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="69"/>
+      <c r="H33" s="72"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="63"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="58"/>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C34" s="46"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="20" t="s">
+      <c r="F34" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="69"/>
+      <c r="H34" s="72"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35" s="63"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="20" t="s">
         <v>71</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="54"/>
-      <c r="H34" s="58"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C35" s="46"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="20" t="s">
-        <v>72</v>
       </c>
       <c r="F35" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="54"/>
-      <c r="H35" s="58"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="72"/>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C36" s="46"/>
-      <c r="D36" s="50"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="66"/>
       <c r="E36" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F36" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="54"/>
-      <c r="H36" s="58"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="72"/>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C37" s="46"/>
-      <c r="D37" s="50"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="66"/>
       <c r="E37" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="54"/>
-      <c r="H37" s="58"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="72"/>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="46"/>
-      <c r="D38" s="50"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="66"/>
       <c r="E38" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F38" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="54"/>
-      <c r="H38" s="58"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="72"/>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C39" s="46"/>
-      <c r="D39" s="50"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="66"/>
       <c r="E39" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="54"/>
-      <c r="H39" s="58"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="72"/>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C40" s="46"/>
-      <c r="D40" s="50"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="66"/>
       <c r="E40" s="28" t="s">
         <v>36</v>
       </c>
       <c r="F40" s="28"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="58"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="72"/>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="46"/>
-      <c r="D41" s="50"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="66"/>
       <c r="E41" s="20" t="s">
         <v>34</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="54"/>
-      <c r="H41" s="58"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="72"/>
     </row>
     <row r="42" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="47"/>
-      <c r="D42" s="51"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="67"/>
       <c r="E42" s="26" t="s">
         <v>35</v>
       </c>
       <c r="F42" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="55"/>
-      <c r="H42" s="59"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="73"/>
     </row>
     <row r="43" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="45">
-        <v>5</v>
-      </c>
-      <c r="D43" s="49" t="s">
+      <c r="C43" s="74">
+        <v>6</v>
+      </c>
+      <c r="D43" s="76" t="s">
         <v>50</v>
       </c>
       <c r="E43" s="27" t="s">
         <v>40</v>
       </c>
       <c r="F43" s="27"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="57"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="80"/>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C44" s="45"/>
-      <c r="D44" s="49"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="76"/>
       <c r="E44" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="78"/>
+      <c r="H44" s="80"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="74"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F44" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="53"/>
-      <c r="H44" s="57"/>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C45" s="45"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="19" t="s">
+      <c r="F45" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="78"/>
+      <c r="H45" s="80"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="74"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F45" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="53"/>
-      <c r="H45" s="57"/>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C46" s="45"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="19" t="s">
+      <c r="F46" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="78"/>
+      <c r="H46" s="80"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="74"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="53"/>
-      <c r="H46" s="57"/>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C47" s="45"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="19" t="s">
-        <v>79</v>
-      </c>
       <c r="F47" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="53"/>
-      <c r="H47" s="57"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="80"/>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C48" s="45"/>
-      <c r="D48" s="49"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="76"/>
       <c r="E48" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="78"/>
+      <c r="H48" s="80"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C49" s="74"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="53"/>
-      <c r="H48" s="57"/>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C49" s="45"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="F49" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="53"/>
-      <c r="H49" s="57"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="80"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C50" s="45"/>
-      <c r="D50" s="49"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="76"/>
       <c r="E50" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F50" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="53"/>
-      <c r="H50" s="57"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="80"/>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C51" s="45"/>
-      <c r="D51" s="49"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="76"/>
       <c r="E51" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F51" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="53"/>
-      <c r="H51" s="57"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="80"/>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C52" s="45"/>
-      <c r="D52" s="49"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="76"/>
       <c r="E52" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F52" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="53"/>
-      <c r="H52" s="57"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="80"/>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C53" s="45"/>
-      <c r="D53" s="49"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="76"/>
       <c r="E53" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F53" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="53"/>
-      <c r="H53" s="57"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="80"/>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C54" s="46"/>
-      <c r="D54" s="50"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="66"/>
       <c r="E54" s="28" t="s">
         <v>36</v>
       </c>
       <c r="F54" s="28"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="58"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="72"/>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C55" s="46"/>
-      <c r="D55" s="50"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="66"/>
       <c r="E55" s="20" t="s">
         <v>37</v>
       </c>
       <c r="F55" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G55" s="54"/>
-      <c r="H55" s="58"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="72"/>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C56" s="46"/>
-      <c r="D56" s="50"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="66"/>
       <c r="E56" s="20" t="s">
         <v>38</v>
       </c>
       <c r="F56" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G56" s="54"/>
-      <c r="H56" s="58"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="72"/>
     </row>
     <row r="57" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C57" s="61"/>
-      <c r="D57" s="63"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="77"/>
       <c r="E57" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F57" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="75"/>
-      <c r="H57" s="76"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="81"/>
     </row>
     <row r="58" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="44">
-        <v>6</v>
-      </c>
-      <c r="D58" s="48" t="s">
+      <c r="C58" s="62">
+        <v>7</v>
+      </c>
+      <c r="D58" s="65" t="s">
         <v>51</v>
       </c>
       <c r="E58" s="33" t="s">
         <v>40</v>
       </c>
       <c r="F58" s="33"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="56"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="71"/>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C59" s="45"/>
-      <c r="D59" s="49"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="76"/>
       <c r="E59" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="78"/>
+      <c r="H59" s="80"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C60" s="74"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F59" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="53"/>
-      <c r="H59" s="57"/>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C60" s="45"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="19" t="s">
+      <c r="F60" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="78"/>
+      <c r="H60" s="80"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C61" s="74"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="53"/>
-      <c r="H60" s="57"/>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C61" s="45"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="19" t="s">
-        <v>89</v>
       </c>
       <c r="F61" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="53"/>
-      <c r="H61" s="57"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="80"/>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C62" s="46"/>
-      <c r="D62" s="50"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="66"/>
       <c r="E62" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F62" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="54"/>
-      <c r="H62" s="58"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="72"/>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C63" s="46"/>
-      <c r="D63" s="50"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="66"/>
       <c r="E63" s="28" t="s">
         <v>41</v>
       </c>
       <c r="F63" s="28"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="58"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="72"/>
     </row>
     <row r="64" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C64" s="47"/>
-      <c r="D64" s="51"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="67"/>
       <c r="E64" s="26" t="s">
         <v>42</v>
       </c>
       <c r="F64" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="55"/>
-      <c r="H64" s="59"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="73"/>
     </row>
     <row r="65" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="45">
-        <v>7</v>
-      </c>
-      <c r="D65" s="49" t="s">
+      <c r="C65" s="74">
+        <v>8</v>
+      </c>
+      <c r="D65" s="76" t="s">
         <v>52</v>
       </c>
       <c r="E65" s="27" t="s">
         <v>40</v>
       </c>
       <c r="F65" s="27"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="57"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="80"/>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C66" s="46"/>
-      <c r="D66" s="50"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="66"/>
       <c r="E66" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="69"/>
+      <c r="H66" s="72"/>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C67" s="63"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F66" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="54"/>
-      <c r="H66" s="58"/>
-    </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C67" s="46"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="20" t="s">
-        <v>92</v>
-      </c>
       <c r="F67" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G67" s="54"/>
-      <c r="H67" s="58"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="72"/>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C68" s="46"/>
-      <c r="D68" s="50"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="66"/>
       <c r="E68" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F68" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G68" s="54"/>
-      <c r="H68" s="58"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="72"/>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C69" s="46"/>
-      <c r="D69" s="50"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="66"/>
       <c r="E69" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F69" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G69" s="54"/>
-      <c r="H69" s="58"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="72"/>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C70" s="46"/>
-      <c r="D70" s="50"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="66"/>
       <c r="E70" s="28" t="s">
         <v>41</v>
       </c>
       <c r="F70" s="28"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="58"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="72"/>
     </row>
     <row r="71" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C71" s="61"/>
-      <c r="D71" s="63"/>
+      <c r="C71" s="75"/>
+      <c r="D71" s="77"/>
       <c r="E71" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F71" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G71" s="75"/>
-      <c r="H71" s="76"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="81"/>
     </row>
     <row r="72" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="44">
-        <v>8</v>
-      </c>
-      <c r="D72" s="48" t="s">
+      <c r="C72" s="62">
+        <v>9</v>
+      </c>
+      <c r="D72" s="65" t="s">
         <v>53</v>
       </c>
       <c r="E72" s="33" t="s">
         <v>40</v>
       </c>
       <c r="F72" s="31"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="56"/>
+      <c r="G72" s="68"/>
+      <c r="H72" s="71"/>
     </row>
     <row r="73" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C73" s="46"/>
-      <c r="D73" s="50"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="66"/>
       <c r="E73" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="69"/>
+      <c r="H73" s="72"/>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C74" s="63"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F73" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="54"/>
-      <c r="H73" s="58"/>
-    </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C74" s="46"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="20" t="s">
+      <c r="F74" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="69"/>
+      <c r="H74" s="72"/>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C75" s="63"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="20" t="s">
         <v>95</v>
-      </c>
-      <c r="F74" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="54"/>
-      <c r="H74" s="58"/>
-    </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C75" s="46"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="20" t="s">
-        <v>96</v>
       </c>
       <c r="F75" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G75" s="54"/>
-      <c r="H75" s="58"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="72"/>
     </row>
     <row r="76" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C76" s="46"/>
-      <c r="D76" s="50"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="66"/>
       <c r="E76" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F76" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G76" s="54"/>
-      <c r="H76" s="58"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="72"/>
     </row>
     <row r="77" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C77" s="46"/>
-      <c r="D77" s="50"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="66"/>
       <c r="E77" s="28" t="s">
         <v>41</v>
       </c>
       <c r="F77" s="32"/>
-      <c r="G77" s="54"/>
-      <c r="H77" s="58"/>
+      <c r="G77" s="69"/>
+      <c r="H77" s="72"/>
     </row>
     <row r="78" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C78" s="47"/>
-      <c r="D78" s="51"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="67"/>
       <c r="E78" s="26" t="s">
         <v>44</v>
       </c>
       <c r="F78" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G78" s="55"/>
-      <c r="H78" s="59"/>
+      <c r="G78" s="70"/>
+      <c r="H78" s="73"/>
     </row>
     <row r="79" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="45">
-        <v>9</v>
-      </c>
-      <c r="D79" s="49" t="s">
+      <c r="C79" s="74">
+        <v>10</v>
+      </c>
+      <c r="D79" s="76" t="s">
         <v>54</v>
       </c>
       <c r="E79" s="27" t="s">
         <v>40</v>
       </c>
       <c r="F79" s="33"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="57"/>
+      <c r="G79" s="78"/>
+      <c r="H79" s="80"/>
     </row>
     <row r="80" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C80" s="46"/>
-      <c r="D80" s="50"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="66"/>
       <c r="E80" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="69"/>
+      <c r="H80" s="72"/>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C81" s="63"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="F80" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="54"/>
-      <c r="H80" s="58"/>
-    </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C81" s="46"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="20" t="s">
+      <c r="F81" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="69"/>
+      <c r="H81" s="72"/>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C82" s="63"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="20" t="s">
         <v>99</v>
-      </c>
-      <c r="F81" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="54"/>
-      <c r="H81" s="58"/>
-    </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C82" s="46"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="20" t="s">
-        <v>100</v>
       </c>
       <c r="F82" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G82" s="54"/>
-      <c r="H82" s="58"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="72"/>
     </row>
     <row r="83" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C83" s="46"/>
-      <c r="D83" s="50"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="66"/>
       <c r="E83" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F83" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G83" s="54"/>
-      <c r="H83" s="58"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="72"/>
     </row>
     <row r="84" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C84" s="46"/>
-      <c r="D84" s="50"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="66"/>
       <c r="E84" s="28" t="s">
         <v>41</v>
       </c>
       <c r="F84" s="28"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="58"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="72"/>
     </row>
     <row r="85" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C85" s="61"/>
-      <c r="D85" s="63"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="77"/>
       <c r="E85" s="25" t="s">
         <v>45</v>
       </c>
       <c r="F85" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G85" s="75"/>
-      <c r="H85" s="76"/>
+      <c r="G85" s="79"/>
+      <c r="H85" s="81"/>
     </row>
     <row r="86" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="44">
-        <v>10</v>
-      </c>
-      <c r="D86" s="48" t="s">
+      <c r="C86" s="62">
+        <v>11</v>
+      </c>
+      <c r="D86" s="65" t="s">
         <v>55</v>
       </c>
       <c r="E86" s="33" t="s">
         <v>40</v>
       </c>
       <c r="F86" s="33"/>
-      <c r="G86" s="52"/>
-      <c r="H86" s="56"/>
+      <c r="G86" s="68"/>
+      <c r="H86" s="71"/>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C87" s="46"/>
-      <c r="D87" s="50"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="66"/>
       <c r="E87" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="69"/>
+      <c r="H87" s="72"/>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C88" s="63"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F87" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="54"/>
-      <c r="H87" s="58"/>
-    </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C88" s="46"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="20" t="s">
-        <v>103</v>
-      </c>
       <c r="F88" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G88" s="54"/>
-      <c r="H88" s="58"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="72"/>
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C89" s="46"/>
-      <c r="D89" s="50"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="66"/>
       <c r="E89" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F89" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G89" s="54"/>
-      <c r="H89" s="58"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="72"/>
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C90" s="46"/>
-      <c r="D90" s="50"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="66"/>
       <c r="E90" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F90" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G90" s="54"/>
-      <c r="H90" s="58"/>
+      <c r="G90" s="69"/>
+      <c r="H90" s="72"/>
     </row>
     <row r="91" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C91" s="46"/>
-      <c r="D91" s="50"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="66"/>
       <c r="E91" s="28" t="s">
         <v>41</v>
       </c>
       <c r="F91" s="28"/>
-      <c r="G91" s="54"/>
-      <c r="H91" s="58"/>
+      <c r="G91" s="69"/>
+      <c r="H91" s="72"/>
     </row>
     <row r="92" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C92" s="47"/>
-      <c r="D92" s="51"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="67"/>
       <c r="E92" s="26" t="s">
         <v>46</v>
       </c>
       <c r="F92" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G92" s="55"/>
-      <c r="H92" s="59"/>
+      <c r="G92" s="70"/>
+      <c r="H92" s="73"/>
     </row>
     <row r="93" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="45">
-        <v>11</v>
-      </c>
-      <c r="D93" s="49" t="s">
+      <c r="C93" s="74">
+        <v>12</v>
+      </c>
+      <c r="D93" s="76" t="s">
         <v>57</v>
       </c>
       <c r="E93" s="27" t="s">
         <v>40</v>
       </c>
       <c r="F93" s="33"/>
-      <c r="G93" s="53"/>
-      <c r="H93" s="57"/>
+      <c r="G93" s="78"/>
+      <c r="H93" s="80"/>
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C94" s="46"/>
-      <c r="D94" s="50"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="66"/>
       <c r="E94" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F94" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="69"/>
+      <c r="H94" s="72"/>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C95" s="63"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="20" t="s">
         <v>107</v>
-      </c>
-      <c r="F94" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="54"/>
-      <c r="H94" s="58"/>
-    </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C95" s="46"/>
-      <c r="D95" s="50"/>
-      <c r="E95" s="20" t="s">
-        <v>108</v>
       </c>
       <c r="F95" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G95" s="54"/>
-      <c r="H95" s="58"/>
+      <c r="G95" s="69"/>
+      <c r="H95" s="72"/>
     </row>
     <row r="96" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C96" s="46"/>
-      <c r="D96" s="50"/>
+      <c r="C96" s="63"/>
+      <c r="D96" s="66"/>
       <c r="E96" s="28" t="s">
         <v>41</v>
       </c>
       <c r="F96" s="28"/>
-      <c r="G96" s="54"/>
-      <c r="H96" s="58"/>
+      <c r="G96" s="69"/>
+      <c r="H96" s="72"/>
     </row>
     <row r="97" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C97" s="61"/>
-      <c r="D97" s="63"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="77"/>
       <c r="E97" s="25" t="s">
         <v>47</v>
       </c>
       <c r="F97" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G97" s="75"/>
-      <c r="H97" s="76"/>
+      <c r="G97" s="79"/>
+      <c r="H97" s="81"/>
     </row>
     <row r="98" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="D98" s="82" t="s">
+      <c r="C98" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D98" s="48" t="s">
         <v>56</v>
       </c>
       <c r="E98" s="29" t="s">
         <v>40</v>
       </c>
       <c r="F98" s="22"/>
-      <c r="G98" s="86"/>
-      <c r="H98" s="90"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="56"/>
     </row>
     <row r="99" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C99" s="79"/>
-      <c r="D99" s="83"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="49"/>
       <c r="E99" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F99" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G99" s="87"/>
-      <c r="H99" s="91"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="57"/>
     </row>
     <row r="100" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C100" s="80"/>
-      <c r="D100" s="84"/>
-      <c r="E100" s="94" t="s">
+      <c r="C100" s="46"/>
+      <c r="D100" s="50"/>
+      <c r="E100" s="60" t="s">
         <v>20</v>
       </c>
       <c r="F100" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G100" s="88"/>
-      <c r="H100" s="92"/>
+      <c r="G100" s="54"/>
+      <c r="H100" s="58"/>
     </row>
     <row r="101" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C101" s="80"/>
-      <c r="D101" s="84"/>
-      <c r="E101" s="95"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="50"/>
+      <c r="E101" s="61"/>
       <c r="F101" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G101" s="88"/>
-      <c r="H101" s="92"/>
+      <c r="G101" s="54"/>
+      <c r="H101" s="58"/>
     </row>
     <row r="102" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C102" s="80"/>
-      <c r="D102" s="84"/>
+      <c r="C102" s="46"/>
+      <c r="D102" s="50"/>
       <c r="E102" s="30" t="s">
         <v>41</v>
       </c>
       <c r="F102" s="23"/>
-      <c r="G102" s="88"/>
-      <c r="H102" s="92"/>
+      <c r="G102" s="54"/>
+      <c r="H102" s="58"/>
     </row>
     <row r="103" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C103" s="81"/>
-      <c r="D103" s="85"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="51"/>
       <c r="E103" s="39" t="s">
         <v>48</v>
       </c>
       <c r="F103" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G103" s="89"/>
-      <c r="H103" s="93"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="59"/>
     </row>
     <row r="104" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="C98:C103"/>
-    <mergeCell ref="D98:D103"/>
-    <mergeCell ref="G98:G103"/>
-    <mergeCell ref="H98:H103"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="C86:C92"/>
-    <mergeCell ref="D86:D92"/>
-    <mergeCell ref="G86:G92"/>
-    <mergeCell ref="H86:H92"/>
-    <mergeCell ref="C93:C97"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="G93:G97"/>
-    <mergeCell ref="H93:H97"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="D72:D78"/>
-    <mergeCell ref="G72:G78"/>
-    <mergeCell ref="H72:H78"/>
-    <mergeCell ref="C79:C85"/>
-    <mergeCell ref="D79:D85"/>
-    <mergeCell ref="G79:G85"/>
-    <mergeCell ref="H79:H85"/>
-    <mergeCell ref="C58:C64"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="G58:G64"/>
-    <mergeCell ref="H58:H64"/>
-    <mergeCell ref="C65:C71"/>
-    <mergeCell ref="D65:D71"/>
-    <mergeCell ref="G65:G71"/>
-    <mergeCell ref="H65:H71"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="D12:D20"/>
+    <mergeCell ref="G12:G20"/>
+    <mergeCell ref="H12:H20"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="D5:D11"/>
+    <mergeCell ref="G5:G11"/>
+    <mergeCell ref="H5:H11"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="G21:G27"/>
     <mergeCell ref="H21:H27"/>
     <mergeCell ref="E23:E24"/>
@@ -3103,18 +3087,37 @@
     <mergeCell ref="D28:D42"/>
     <mergeCell ref="G28:G42"/>
     <mergeCell ref="H28:H42"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="D5:D11"/>
-    <mergeCell ref="G5:G11"/>
-    <mergeCell ref="H5:H11"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="D12:D20"/>
-    <mergeCell ref="G12:G20"/>
-    <mergeCell ref="H12:H20"/>
-    <mergeCell ref="E17:E19"/>
     <mergeCell ref="C21:C27"/>
     <mergeCell ref="D21:D27"/>
+    <mergeCell ref="C58:C64"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="G58:G64"/>
+    <mergeCell ref="H58:H64"/>
+    <mergeCell ref="C65:C71"/>
+    <mergeCell ref="D65:D71"/>
+    <mergeCell ref="G65:G71"/>
+    <mergeCell ref="H65:H71"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="D72:D78"/>
+    <mergeCell ref="G72:G78"/>
+    <mergeCell ref="H72:H78"/>
+    <mergeCell ref="C79:C85"/>
+    <mergeCell ref="D79:D85"/>
+    <mergeCell ref="G79:G85"/>
+    <mergeCell ref="H79:H85"/>
+    <mergeCell ref="C86:C92"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="G86:G92"/>
+    <mergeCell ref="H86:H92"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="G93:G97"/>
+    <mergeCell ref="H93:H97"/>
+    <mergeCell ref="C98:C103"/>
+    <mergeCell ref="D98:D103"/>
+    <mergeCell ref="G98:G103"/>
+    <mergeCell ref="H98:H103"/>
+    <mergeCell ref="E100:E101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
